--- a/source_data/taxation-wine-ctt-trends.xlsx
+++ b/source_data/taxation-wine-ctt-trends.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\PAC\_final-submission\CTP\9789264309036 - Consumption Tax Trends\Statlinks DOI list Consumption Tax Trends 2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Applic\TPSII\OECD Tax Database\Consumption TaxTrends Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="4.2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2'!$A$1:$K$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'4.2'!$A$1:$K$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>National currency</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Low-alcohol (still) wine (&lt;8.5% abv)</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Australia*</t>
   </si>
   <si>
@@ -240,32 +237,10 @@
     <t>26.5%</t>
   </si>
   <si>
-    <t>Market Exchange Rates 2017</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Source: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>national delegates;  position as at 1 January 2018</t>
-    </r>
-  </si>
-  <si>
-    <t>Conversion of national currency in USD: conversion rates are average market rates (2017) published in OECD Monthly Monetary Statistics (stats.oecd.org)</t>
-  </si>
-  <si>
     <t>5.0/13.0/15.0</t>
-  </si>
-  <si>
-    <t>* Country notes: see box 3.A.2</t>
   </si>
   <si>
     <r>
@@ -293,6 +268,22 @@
       </rPr>
       <t>Taxation of wine</t>
     </r>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COP</t>
+  </si>
+  <si>
+    <t>Market Exchange Rates 2019</t>
+  </si>
+  <si>
+    <t>Notes
+* See Country notes
+Conversion of national currency in USD: conversion rates are average market rates (2019) published in OECD Monthly Monetary Statistics
+(stats.oecd.org).
+Source: National delegates; position as at 1 January 2020</t>
   </si>
 </sst>
 </file>
@@ -584,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,6 +694,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1" readingOrder="1"/>
@@ -1030,13 +1027,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U66"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
@@ -1052,7 +1049,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="4" customFormat="1" ht="12">
       <c r="A1" s="40" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
@@ -1092,27 +1089,27 @@
       </c>
       <c r="D3" s="43"/>
       <c r="E3" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="43"/>
       <c r="K3" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="48">
       <c r="A4" s="46"/>
       <c r="B4" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>0</v>
@@ -1121,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>0</v>
@@ -1130,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>0</v>
@@ -1139,21 +1136,21 @@
         <v>1</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>17</v>
@@ -1162,7 +1159,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>17</v>
@@ -1171,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>17</v>
@@ -1180,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="33">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1188,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="24">
         <v>0</v>
@@ -1229,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="25">
         <v>74.91</v>
@@ -1267,53 +1264,53 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="24">
-        <v>63</v>
+        <v>65.3</v>
       </c>
       <c r="D8" s="24">
         <f>C8/O8</f>
-        <v>48.46153846153846</v>
+        <v>49.097744360902254</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" s="24">
-        <v>63</v>
+        <v>65.3</v>
       </c>
       <c r="G8" s="24">
         <f>F8/O8</f>
-        <v>48.46153846153846</v>
+        <v>49.097744360902254</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="24" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O8" s="34">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>17</v>
@@ -1322,7 +1319,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>17</v>
@@ -1331,7 +1328,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>17</v>
@@ -1340,647 +1337,626 @@
         <v>19</v>
       </c>
       <c r="O9" s="33">
-        <v>648.67999999999995</v>
+        <v>702.9</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="O10" s="33">
+        <v>3280.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0</v>
+      </c>
+      <c r="D11" s="24">
+        <f t="shared" ref="D11:D18" si="0">C11/O11</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>21</v>
+      </c>
+      <c r="F11" s="24">
+        <v>2340</v>
+      </c>
+      <c r="G11" s="24">
+        <f t="shared" ref="G11:G18" si="1">F11/O11</f>
+        <v>100.04275331338178</v>
+      </c>
+      <c r="H11" s="24">
+        <v>21</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <f>I11/O11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="24">
+        <v>21</v>
+      </c>
+      <c r="O11" s="34">
+        <v>23.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="24">
-        <v>0</v>
-      </c>
-      <c r="D10" s="24">
-        <f t="shared" ref="D10:D17" si="0">C10/O10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="24">
-        <v>21</v>
-      </c>
-      <c r="F10" s="24">
-        <v>2340</v>
-      </c>
-      <c r="G10" s="24">
-        <f t="shared" ref="G10:G17" si="1">F10/O10</f>
-        <v>100.04275331338178</v>
-      </c>
-      <c r="H10" s="24">
-        <v>21</v>
-      </c>
-      <c r="I10" s="24">
-        <v>0</v>
-      </c>
-      <c r="J10" s="24">
-        <f>I10/O10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="24">
-        <v>21</v>
-      </c>
-      <c r="O10" s="34">
-        <v>23.39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="21" t="s">
+      <c r="C12" s="25">
+        <v>1126</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="0"/>
+        <v>168.81559220389806</v>
+      </c>
+      <c r="E12" s="25">
         <v>25</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="25">
-        <v>1161</v>
-      </c>
-      <c r="D11" s="25">
-        <f t="shared" si="0"/>
-        <v>175.90909090909091</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="F12" s="25">
+        <v>1461</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="1"/>
+        <v>219.04047976011995</v>
+      </c>
+      <c r="H12" s="25">
         <v>25</v>
       </c>
-      <c r="F11" s="25">
-        <v>1496</v>
-      </c>
-      <c r="G11" s="25">
-        <f t="shared" si="1"/>
-        <v>226.66666666666669</v>
-      </c>
-      <c r="H11" s="25">
+      <c r="I12" s="25">
+        <v>518</v>
+      </c>
+      <c r="J12" s="25">
+        <f>I12/O12</f>
+        <v>77.661169415292349</v>
+      </c>
+      <c r="K12" s="25">
         <v>25</v>
       </c>
-      <c r="I11" s="25">
-        <v>534</v>
-      </c>
-      <c r="J11" s="25">
-        <f>I11/O11</f>
-        <v>80.909090909090907</v>
-      </c>
-      <c r="K11" s="25">
+      <c r="O12" s="33">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="33">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="24">
+      <c r="B13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="24">
         <v>147.82</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D13" s="24">
         <f t="shared" si="0"/>
         <v>166.08988764044943</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E13" s="24">
         <v>20</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F13" s="24">
         <v>147.82</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G13" s="24">
         <f t="shared" si="1"/>
         <v>166.08988764044943</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H13" s="24">
         <v>20</v>
       </c>
-      <c r="I12" s="24">
-        <v>84.41</v>
-      </c>
-      <c r="J12" s="24">
-        <f>I12/O12</f>
-        <v>94.842696629213478</v>
-      </c>
-      <c r="K12" s="24">
+      <c r="I13" s="24">
+        <v>63.35</v>
+      </c>
+      <c r="J13" s="24">
+        <f>I13/O13</f>
+        <v>71.17977528089888</v>
+      </c>
+      <c r="K13" s="24">
         <v>20</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O13" s="34">
         <v>0.89</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="21" t="s">
+    <row r="14" spans="1:15">
+      <c r="A14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="25">
+        <v>397</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="0"/>
+        <v>446.06741573033707</v>
+      </c>
+      <c r="E14" s="25">
+        <v>24</v>
+      </c>
+      <c r="F14" s="25">
+        <v>397</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="1"/>
+        <v>446.06741573033707</v>
+      </c>
+      <c r="H14" s="25">
+        <v>24</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="25">
+        <v>24</v>
+      </c>
+      <c r="O14" s="33">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="25">
-        <v>383</v>
-      </c>
-      <c r="D13" s="25">
+      <c r="B15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="29">
+        <v>3.82</v>
+      </c>
+      <c r="D15" s="29">
         <f t="shared" si="0"/>
-        <v>430.33707865168537</v>
-      </c>
-      <c r="E13" s="25">
-        <v>24</v>
-      </c>
-      <c r="F13" s="25">
-        <v>383</v>
-      </c>
-      <c r="G13" s="25">
+        <v>4.2921348314606735</v>
+      </c>
+      <c r="E15" s="29">
+        <v>20</v>
+      </c>
+      <c r="F15" s="29">
+        <v>9.44</v>
+      </c>
+      <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>430.33707865168537</v>
-      </c>
-      <c r="H13" s="25">
-        <v>24</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="25">
-        <v>24</v>
-      </c>
-      <c r="O13" s="33">
+        <v>10.606741573033707</v>
+      </c>
+      <c r="H15" s="29">
+        <v>20</v>
+      </c>
+      <c r="I15" s="29">
+        <v>3.82</v>
+      </c>
+      <c r="J15" s="29">
+        <f>I15/O15</f>
+        <v>4.2921348314606735</v>
+      </c>
+      <c r="K15" s="24">
+        <v>20</v>
+      </c>
+      <c r="O15" s="34">
         <v>0.89</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="20" t="s">
+    <row r="16" spans="1:15">
+      <c r="A16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="29">
-        <v>3.78</v>
-      </c>
-      <c r="D14" s="29">
+      <c r="B16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
         <f t="shared" si="0"/>
-        <v>4.2471910112359552</v>
-      </c>
-      <c r="E14" s="29">
-        <v>20</v>
-      </c>
-      <c r="F14" s="29">
-        <v>9.35</v>
-      </c>
-      <c r="G14" s="29">
-        <f t="shared" si="1"/>
-        <v>10.50561797752809</v>
-      </c>
-      <c r="H14" s="29">
-        <v>20</v>
-      </c>
-      <c r="I14" s="29">
-        <v>3.78</v>
-      </c>
-      <c r="J14" s="29">
-        <f>I14/O14</f>
-        <v>4.2471910112359552</v>
-      </c>
-      <c r="K14" s="24">
-        <v>20</v>
-      </c>
-      <c r="O14" s="34">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
         <v>19</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F16" s="25">
         <v>136</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G16" s="25">
         <f t="shared" si="1"/>
         <v>152.80898876404495</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H16" s="25">
         <v>19</v>
       </c>
-      <c r="I15" s="25">
-        <v>0</v>
-      </c>
-      <c r="J15" s="25">
-        <f>I15/O15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="25">
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="25">
+        <f>I16/O16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="25">
         <v>19</v>
       </c>
-      <c r="O15" s="33">
+      <c r="O16" s="33">
         <v>0.89</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="20" t="s">
+    <row r="17" spans="1:15">
+      <c r="A17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="24">
-        <v>20</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="B17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0</v>
+      </c>
+      <c r="D17" s="24">
         <f t="shared" si="0"/>
-        <v>22.471910112359549</v>
-      </c>
-      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
         <v>24</v>
       </c>
-      <c r="F16" s="24">
-        <v>20</v>
-      </c>
-      <c r="G16" s="24">
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
         <f t="shared" si="1"/>
-        <v>22.471910112359549</v>
-      </c>
-      <c r="H16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
         <v>24</v>
       </c>
-      <c r="I16" s="24">
-        <v>20</v>
-      </c>
-      <c r="J16" s="24">
-        <f>I16/O16</f>
-        <v>22.471910112359549</v>
-      </c>
-      <c r="K16" s="24">
+      <c r="I17" s="24">
+        <v>0</v>
+      </c>
+      <c r="J17" s="24">
+        <f>I17/O17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="24">
         <v>24</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O17" s="34">
         <v>0.89</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="21" t="s">
+    <row r="18" spans="1:15">
+      <c r="A18" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="25">
+        <v>0</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="25">
+        <v>27</v>
+      </c>
+      <c r="F18" s="25">
+        <v>16460</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="1"/>
+        <v>56.629739214202154</v>
+      </c>
+      <c r="H18" s="25">
+        <v>27</v>
+      </c>
+      <c r="I18" s="25">
+        <v>0</v>
+      </c>
+      <c r="J18" s="25">
+        <f>I18/O18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="25">
+        <v>27</v>
+      </c>
+      <c r="O18" s="33">
+        <v>290.66000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="25">
-        <v>27</v>
-      </c>
-      <c r="F17" s="25">
-        <v>16460</v>
-      </c>
-      <c r="G17" s="25">
-        <f t="shared" si="1"/>
-        <v>59.967939376275133</v>
-      </c>
-      <c r="H17" s="25">
-        <v>27</v>
-      </c>
-      <c r="I17" s="25">
-        <v>0</v>
-      </c>
-      <c r="J17" s="25">
-        <f>I17/O17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="25">
-        <v>27</v>
-      </c>
-      <c r="O17" s="33">
-        <v>274.48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="20" t="s">
+      <c r="C19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="24">
+        <v>11</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="24">
+        <v>11</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="24">
+        <v>11</v>
+      </c>
+      <c r="O19" s="34">
+        <v>122.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="25">
+        <v>424.84</v>
+      </c>
+      <c r="D20" s="25">
+        <f>C20/O20</f>
+        <v>477.34831460674155</v>
+      </c>
+      <c r="E20" s="25">
+        <v>23</v>
+      </c>
+      <c r="F20" s="25">
+        <v>849.68</v>
+      </c>
+      <c r="G20" s="25">
+        <f>F20/O20</f>
+        <v>954.69662921348311</v>
+      </c>
+      <c r="H20" s="25">
+        <v>23</v>
+      </c>
+      <c r="I20" s="25">
+        <v>141.57</v>
+      </c>
+      <c r="J20" s="25">
+        <f>I20/O20</f>
+        <v>159.06741573033707</v>
+      </c>
+      <c r="K20" s="25">
+        <v>23</v>
+      </c>
+      <c r="O20" s="33">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="24" t="s">
+      <c r="C21" s="24">
+        <v>0</v>
+      </c>
+      <c r="D21" s="24">
+        <f>C21/O21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="24">
         <v>17</v>
       </c>
-      <c r="E18" s="24">
-        <v>11</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="24" t="s">
+      <c r="F21" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="24">
-        <v>11</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="24" t="s">
+      <c r="H21" s="24">
         <v>17</v>
       </c>
-      <c r="K18" s="24">
-        <v>11</v>
-      </c>
-      <c r="O18" s="34">
-        <v>106.82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="21" t="s">
+      <c r="I21" s="24">
+        <v>0</v>
+      </c>
+      <c r="J21" s="24">
+        <f>I21/O21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="24">
+        <v>17</v>
+      </c>
+      <c r="O21" s="34">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="25">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
+        <f>C22/O22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="25">
+        <v>22</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <f>F22/O22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>22</v>
+      </c>
+      <c r="I22" s="25">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25">
+        <f>I22/O22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="25">
+        <v>22</v>
+      </c>
+      <c r="O22" s="33">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="24">
+        <v>8000</v>
+      </c>
+      <c r="D23" s="24">
+        <f>C23/O23</f>
+        <v>73.327222731439051</v>
+      </c>
+      <c r="E23" s="24">
+        <v>10</v>
+      </c>
+      <c r="F23" s="24">
+        <v>8000</v>
+      </c>
+      <c r="G23" s="24">
+        <f>F23/O23</f>
+        <v>73.327222731439051</v>
+      </c>
+      <c r="H23" s="24">
+        <v>10</v>
+      </c>
+      <c r="I23" s="24">
+        <v>8000</v>
+      </c>
+      <c r="J23" s="24">
+        <f>I23/O23</f>
+        <v>73.327222731439051</v>
+      </c>
+      <c r="K23" s="24">
+        <v>10</v>
+      </c>
+      <c r="O23" s="34">
+        <v>109.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="25">
-        <v>424.84</v>
-      </c>
-      <c r="D19" s="25">
-        <f>C19/O19</f>
-        <v>477.34831460674155</v>
-      </c>
-      <c r="E19" s="25">
-        <v>23</v>
-      </c>
-      <c r="F19" s="25">
-        <v>849.68</v>
-      </c>
-      <c r="G19" s="25">
-        <f>F19/O19</f>
-        <v>954.69662921348311</v>
-      </c>
-      <c r="H19" s="25">
-        <v>23</v>
-      </c>
-      <c r="I19" s="25">
-        <v>141.57</v>
-      </c>
-      <c r="J19" s="25">
-        <f>I19/O19</f>
-        <v>159.06741573033707</v>
-      </c>
-      <c r="K19" s="25">
-        <v>23</v>
-      </c>
-      <c r="O19" s="33">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0</v>
-      </c>
-      <c r="D20" s="24">
-        <f>C20/O20</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="24">
+      <c r="B24" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="24" t="s">
+      <c r="E24" s="25">
+        <v>10</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H24" s="25">
+        <v>10</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="24">
-        <v>0</v>
-      </c>
-      <c r="J20" s="24">
-        <f>I20/O20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="24">
-        <v>17</v>
-      </c>
-      <c r="O20" s="34">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="25">
-        <v>0</v>
-      </c>
-      <c r="D21" s="25">
-        <f>C21/O21</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="25">
-        <v>22</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="25">
-        <f>F21/O21</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="25">
-        <v>22</v>
-      </c>
-      <c r="I21" s="25">
-        <v>0</v>
-      </c>
-      <c r="J21" s="25">
-        <f>I21/O21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="25">
-        <v>22</v>
-      </c>
-      <c r="O21" s="33">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="24">
-        <v>8000</v>
-      </c>
-      <c r="D22" s="24">
-        <f>C22/O22</f>
-        <v>71.313959707612767</v>
-      </c>
-      <c r="E22" s="24">
-        <v>8</v>
-      </c>
-      <c r="F22" s="24">
-        <v>8000</v>
-      </c>
-      <c r="G22" s="24">
-        <f>F22/O22</f>
-        <v>71.313959707612767</v>
-      </c>
-      <c r="H22" s="24">
-        <v>8</v>
-      </c>
-      <c r="I22" s="24">
-        <v>8000</v>
-      </c>
-      <c r="J22" s="24">
-        <f>I22/O22</f>
-        <v>71.313959707612767</v>
-      </c>
-      <c r="K22" s="24">
-        <v>8</v>
-      </c>
-      <c r="O22" s="34">
-        <v>112.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="K24" s="25">
         <v>10</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="25">
-        <v>10</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="25">
-        <v>10</v>
-      </c>
-      <c r="O23" s="33">
-        <v>1130.6400000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="24">
-        <v>78</v>
-      </c>
-      <c r="D24" s="24">
-        <f>C24/O24</f>
-        <v>87.640449438202239</v>
-      </c>
-      <c r="E24" s="24">
-        <v>21</v>
-      </c>
-      <c r="F24" s="24">
-        <v>78</v>
-      </c>
-      <c r="G24" s="24">
-        <f>F24/O24</f>
-        <v>87.640449438202239</v>
-      </c>
-      <c r="H24" s="24">
-        <v>21</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24">
-        <v>21</v>
-      </c>
-      <c r="O24" s="34">
-        <v>0.89</v>
+      <c r="O24" s="33">
+        <v>1165.5</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="24">
-        <v>164.67</v>
+        <v>101</v>
       </c>
       <c r="D25" s="24">
         <f>C25/O25</f>
-        <v>185.02247191011233</v>
+        <v>113.48314606741573</v>
       </c>
       <c r="E25" s="24">
         <v>21</v>
       </c>
       <c r="F25" s="24">
-        <v>164.67</v>
+        <v>101</v>
       </c>
       <c r="G25" s="24">
         <f>F25/O25</f>
-        <v>185.02247191011233</v>
+        <v>113.48314606741573</v>
       </c>
       <c r="H25" s="24">
         <v>21</v>
       </c>
-      <c r="I25" s="24">
-        <v>65.459999999999994</v>
-      </c>
-      <c r="J25" s="24">
-        <f>I25/O25</f>
-        <v>73.550561797752806</v>
-      </c>
+      <c r="I25" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" s="24"/>
       <c r="K25" s="24">
         <v>21</v>
       </c>
@@ -1989,668 +1965,693 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="24">
+        <v>164.67</v>
+      </c>
+      <c r="D26" s="24">
+        <f>C26/O26</f>
+        <v>185.02247191011233</v>
+      </c>
+      <c r="E26" s="24">
+        <v>21</v>
+      </c>
+      <c r="F26" s="24">
+        <v>164.67</v>
+      </c>
+      <c r="G26" s="24">
+        <f>F26/O26</f>
+        <v>185.02247191011233</v>
+      </c>
+      <c r="H26" s="24">
+        <v>21</v>
+      </c>
+      <c r="I26" s="24">
+        <v>65.459999999999994</v>
+      </c>
+      <c r="J26" s="24">
+        <f>I26/O26</f>
+        <v>73.550561797752806</v>
+      </c>
+      <c r="K26" s="24">
+        <v>21</v>
+      </c>
+      <c r="O26" s="34">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <f>C27/O27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <f>F27/O27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <v>17</v>
+      </c>
+      <c r="I27" s="25">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <f>I27/O27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <v>14</v>
+      </c>
+      <c r="O27" s="33">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="25">
-        <v>0</v>
-      </c>
-      <c r="D26" s="25">
-        <f>C26/O26</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <f>F26/O26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="25">
+      <c r="B28" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="25">
-        <v>0</v>
-      </c>
-      <c r="J26" s="25">
-        <f>I26/O26</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="25">
-        <v>14</v>
-      </c>
-      <c r="O26" s="33">
+      <c r="E28" s="24">
+        <v>16</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="24">
+        <v>16</v>
+      </c>
+      <c r="I28" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="24">
+        <v>16</v>
+      </c>
+      <c r="O28" s="34">
+        <v>19.260000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="25">
+        <v>88.3</v>
+      </c>
+      <c r="D29" s="25">
+        <f>C29/O29</f>
+        <v>99.213483146067418</v>
+      </c>
+      <c r="E29" s="25">
+        <v>21</v>
+      </c>
+      <c r="F29" s="25">
+        <v>88.3</v>
+      </c>
+      <c r="G29" s="25">
+        <f>F29/O29</f>
+        <v>99.213483146067418</v>
+      </c>
+      <c r="H29" s="25">
+        <v>21</v>
+      </c>
+      <c r="I29" s="25">
+        <v>44.24</v>
+      </c>
+      <c r="J29" s="25">
+        <f>I29/O29</f>
+        <v>49.707865168539328</v>
+      </c>
+      <c r="K29" s="25">
+        <v>21</v>
+      </c>
+      <c r="O29" s="33">
         <v>0.89</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="20" t="s">
+    <row r="30" spans="1:15">
+      <c r="A30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="24" t="s">
+      <c r="C30" s="24">
+        <v>290.54000000000002</v>
+      </c>
+      <c r="D30" s="25">
+        <f>C30/O30</f>
+        <v>191.14473684210529</v>
+      </c>
+      <c r="E30" s="24">
+        <v>15</v>
+      </c>
+      <c r="F30" s="24">
+        <v>290.54000000000002</v>
+      </c>
+      <c r="G30" s="25">
+        <f>F30/O30</f>
+        <v>191.14473684210529</v>
+      </c>
+      <c r="H30" s="24">
+        <v>15</v>
+      </c>
+      <c r="I30" s="24">
+        <v>290.54000000000002</v>
+      </c>
+      <c r="J30" s="25">
+        <f>I30/O30</f>
+        <v>191.14473684210529</v>
+      </c>
+      <c r="K30" s="24">
+        <v>15</v>
+      </c>
+      <c r="O30" s="34">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="25">
+        <v>6132</v>
+      </c>
+      <c r="D31" s="25">
+        <f t="shared" ref="D31:D39" si="2">C31/O31</f>
+        <v>696.81818181818176</v>
+      </c>
+      <c r="E31" s="25">
+        <v>25</v>
+      </c>
+      <c r="F31" s="25">
+        <v>6132</v>
+      </c>
+      <c r="G31" s="25">
+        <f t="shared" ref="G31:G39" si="3">F31/O31</f>
+        <v>696.81818181818176</v>
+      </c>
+      <c r="H31" s="25">
+        <v>25</v>
+      </c>
+      <c r="I31" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="24">
-        <v>16</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="24">
-        <v>16</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="24">
-        <v>16</v>
-      </c>
-      <c r="O27" s="34">
-        <v>18.87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="25">
-        <v>88.3</v>
-      </c>
-      <c r="D28" s="25">
-        <f>C28/O28</f>
-        <v>99.213483146067418</v>
-      </c>
-      <c r="E28" s="25">
-        <v>21</v>
-      </c>
-      <c r="F28" s="25">
-        <v>88.3</v>
-      </c>
-      <c r="G28" s="25">
-        <f>F28/O28</f>
-        <v>99.213483146067418</v>
-      </c>
-      <c r="H28" s="25">
-        <v>21</v>
-      </c>
-      <c r="I28" s="25">
-        <v>44.24</v>
-      </c>
-      <c r="J28" s="25">
-        <f>I28/O28</f>
-        <v>49.707865168539328</v>
-      </c>
-      <c r="K28" s="25">
-        <v>21</v>
-      </c>
-      <c r="O28" s="33">
+      <c r="K31" s="25">
+        <v>25</v>
+      </c>
+      <c r="O31" s="33">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="24">
+        <v>174</v>
+      </c>
+      <c r="D32" s="24">
+        <f t="shared" si="2"/>
+        <v>45.3125</v>
+      </c>
+      <c r="E32" s="24">
+        <v>23</v>
+      </c>
+      <c r="F32" s="24">
+        <v>174</v>
+      </c>
+      <c r="G32" s="24">
+        <f t="shared" si="3"/>
+        <v>45.3125</v>
+      </c>
+      <c r="H32" s="24">
+        <v>23</v>
+      </c>
+      <c r="I32" s="24">
+        <v>174</v>
+      </c>
+      <c r="J32" s="24">
+        <f>I32/O32</f>
+        <v>45.3125</v>
+      </c>
+      <c r="K32" s="24">
+        <v>23</v>
+      </c>
+      <c r="O32" s="34">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
+      <c r="D33" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="25">
+        <v>13</v>
+      </c>
+      <c r="F33" s="25">
+        <v>0</v>
+      </c>
+      <c r="G33" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="25">
+        <v>23</v>
+      </c>
+      <c r="I33" s="25">
+        <v>0</v>
+      </c>
+      <c r="J33" s="25">
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <v>23</v>
+      </c>
+      <c r="O33" s="33">
         <v>0.89</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="24">
-        <v>15</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="24">
-        <v>15</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="24">
-        <v>15</v>
-      </c>
-      <c r="O29" s="34">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="21" t="s">
+    <row r="34" spans="1:21">
+      <c r="A34" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="25">
-        <v>5928</v>
-      </c>
-      <c r="D30" s="25">
-        <f t="shared" ref="D30:D38" si="2">C30/O30</f>
-        <v>716.80773881499397</v>
-      </c>
-      <c r="E30" s="25">
-        <v>25</v>
-      </c>
-      <c r="F30" s="25">
-        <v>5928</v>
-      </c>
-      <c r="G30" s="25">
-        <f t="shared" ref="G30:G38" si="3">F30/O30</f>
-        <v>716.80773881499397</v>
-      </c>
-      <c r="H30" s="25">
-        <v>25</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="25">
-        <v>25</v>
-      </c>
-      <c r="O30" s="33">
-        <v>8.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="24">
-        <v>158</v>
-      </c>
-      <c r="D31" s="24">
+      <c r="B34" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="24">
+        <v>0</v>
+      </c>
+      <c r="D34" s="24">
         <f t="shared" si="2"/>
-        <v>41.798941798941804</v>
-      </c>
-      <c r="E31" s="24">
-        <v>23</v>
-      </c>
-      <c r="F31" s="24">
-        <v>158</v>
-      </c>
-      <c r="G31" s="24">
-        <f t="shared" si="3"/>
-        <v>41.798941798941804</v>
-      </c>
-      <c r="H31" s="24">
-        <v>23</v>
-      </c>
-      <c r="I31" s="24">
-        <v>158</v>
-      </c>
-      <c r="J31" s="24">
-        <f>I31/O31</f>
-        <v>41.798941798941804</v>
-      </c>
-      <c r="K31" s="24">
-        <v>23</v>
-      </c>
-      <c r="O31" s="34">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="25">
-        <v>0</v>
-      </c>
-      <c r="D32" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="25">
-        <v>13</v>
-      </c>
-      <c r="F32" s="25">
-        <v>0</v>
-      </c>
-      <c r="G32" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="25">
-        <v>23</v>
-      </c>
-      <c r="I32" s="25">
-        <v>0</v>
-      </c>
-      <c r="J32" s="25">
-        <v>0</v>
-      </c>
-      <c r="K32" s="25">
-        <v>23</v>
-      </c>
-      <c r="O32" s="33">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="24">
-        <v>0</v>
-      </c>
-      <c r="D33" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="24">
+        <v>0</v>
+      </c>
+      <c r="E34" s="24">
         <v>20</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F34" s="24">
         <v>79.650000000000006</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G34" s="24">
         <f t="shared" si="3"/>
         <v>89.49438202247191</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H34" s="24">
         <v>20</v>
       </c>
-      <c r="I33" s="24">
-        <v>0</v>
-      </c>
-      <c r="J33" s="24">
-        <f>I33/O33</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="24">
+      <c r="I34" s="24">
+        <v>0</v>
+      </c>
+      <c r="J34" s="24">
+        <f>I34/O34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="24">
         <v>20</v>
       </c>
-      <c r="O33" s="34">
+      <c r="O34" s="34">
         <v>0.89</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="21" t="s">
+    <row r="35" spans="1:21">
+      <c r="A35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="25">
-        <v>0</v>
-      </c>
-      <c r="D34" s="25">
+      <c r="B35" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="25">
+        <v>0</v>
+      </c>
+      <c r="D35" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E35" s="25">
         <v>22</v>
       </c>
-      <c r="F34" s="25">
-        <v>0</v>
-      </c>
-      <c r="G34" s="25">
+      <c r="F35" s="25">
+        <v>0</v>
+      </c>
+      <c r="G35" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H34" s="25">
+      <c r="H35" s="25">
         <v>22</v>
       </c>
-      <c r="I34" s="25">
-        <v>0</v>
-      </c>
-      <c r="J34" s="25">
-        <f>I34/O34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="25">
+      <c r="I35" s="25">
+        <v>0</v>
+      </c>
+      <c r="J35" s="25">
+        <f>I35/O35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="25">
         <v>22</v>
       </c>
-      <c r="O34" s="33">
+      <c r="O35" s="33">
         <v>0.89</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="20" t="s">
+    <row r="36" spans="1:21">
+      <c r="A36" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="24">
+        <v>0</v>
+      </c>
+      <c r="D36" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="24">
+        <v>21</v>
+      </c>
+      <c r="F36" s="24">
+        <v>0</v>
+      </c>
+      <c r="G36" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="24">
+        <v>21</v>
+      </c>
+      <c r="I36" s="24">
+        <v>0</v>
+      </c>
+      <c r="J36" s="24">
+        <v>0</v>
+      </c>
+      <c r="K36" s="24">
+        <v>21</v>
+      </c>
+      <c r="O36" s="34">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="24">
-        <v>0</v>
-      </c>
-      <c r="D35" s="24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="24">
-        <v>21</v>
-      </c>
-      <c r="F35" s="24">
-        <v>0</v>
-      </c>
-      <c r="G35" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="24">
-        <v>21</v>
-      </c>
-      <c r="I35" s="24">
-        <v>0</v>
-      </c>
-      <c r="J35" s="24">
-        <v>0</v>
-      </c>
-      <c r="K35" s="24">
-        <v>21</v>
-      </c>
-      <c r="O35" s="34">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="21" t="s">
+      <c r="B37" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="25">
+        <v>25</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="25">
+        <v>25</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="25">
+        <v>25</v>
+      </c>
+      <c r="O37" s="33">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="25">
-        <v>25</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="25">
-        <v>25</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="25">
-        <v>25</v>
-      </c>
-      <c r="O36" s="33">
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="24">
-        <v>0</v>
-      </c>
-      <c r="D37" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="24">
-        <v>7.7</v>
-      </c>
-      <c r="F37" s="24">
-        <v>0</v>
-      </c>
-      <c r="G37" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="24">
-        <v>7.7</v>
-      </c>
-      <c r="I37" s="24">
-        <v>0</v>
-      </c>
-      <c r="J37" s="25">
-        <f>I37/O37</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="24">
-        <v>7.7</v>
-      </c>
-      <c r="O37" s="34">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="25">
-        <v>663.63</v>
+      <c r="C38" s="24">
+        <v>0</v>
       </c>
       <c r="D38" s="25">
         <f t="shared" si="2"/>
-        <v>181.81643835616438</v>
-      </c>
-      <c r="E38" s="25">
-        <v>18</v>
-      </c>
-      <c r="F38" s="25">
-        <v>4483.51</v>
+        <v>0</v>
+      </c>
+      <c r="E38" s="24">
+        <v>7.7</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0</v>
       </c>
       <c r="G38" s="25">
         <f t="shared" si="3"/>
-        <v>1228.358904109589</v>
-      </c>
-      <c r="H38" s="25">
-        <v>18</v>
-      </c>
-      <c r="I38" s="25">
-        <v>663.63</v>
+        <v>0</v>
+      </c>
+      <c r="H38" s="24">
+        <v>7.7</v>
+      </c>
+      <c r="I38" s="24">
+        <v>0</v>
       </c>
       <c r="J38" s="25">
         <f>I38/O38</f>
-        <v>181.81643835616438</v>
-      </c>
-      <c r="K38" s="25">
+        <v>0</v>
+      </c>
+      <c r="K38" s="24">
+        <v>7.7</v>
+      </c>
+      <c r="O38" s="34">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="25">
+        <v>1005.11</v>
+      </c>
+      <c r="D39" s="25">
+        <f t="shared" si="2"/>
+        <v>177.26807760141094</v>
+      </c>
+      <c r="E39" s="25">
         <v>18</v>
       </c>
-      <c r="O38" s="33">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="24">
-        <v>288.64999999999998</v>
-      </c>
-      <c r="D39" s="25">
-        <f>C39/O39</f>
-        <v>370.06410256410254</v>
-      </c>
-      <c r="E39" s="24">
-        <v>20</v>
-      </c>
-      <c r="F39" s="24">
-        <v>369.72</v>
+      <c r="F39" s="25">
+        <v>6790.74</v>
       </c>
       <c r="G39" s="25">
-        <f>F39/O39</f>
-        <v>474</v>
-      </c>
-      <c r="H39" s="24">
-        <v>20</v>
-      </c>
-      <c r="I39" s="24">
-        <v>88.93</v>
+        <f t="shared" si="3"/>
+        <v>1197.6613756613756</v>
+      </c>
+      <c r="H39" s="25">
+        <v>18</v>
+      </c>
+      <c r="I39" s="25">
+        <v>663.63</v>
       </c>
       <c r="J39" s="25">
         <f>I39/O39</f>
+        <v>117.04232804232804</v>
+      </c>
+      <c r="K39" s="25">
+        <v>18</v>
+      </c>
+      <c r="O39" s="33">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="24">
+        <v>288.64999999999998</v>
+      </c>
+      <c r="D40" s="25">
+        <f>C40/O40</f>
+        <v>370.06410256410254</v>
+      </c>
+      <c r="E40" s="24">
+        <v>20</v>
+      </c>
+      <c r="F40" s="24">
+        <v>369.72</v>
+      </c>
+      <c r="G40" s="25">
+        <f>F40/O40</f>
+        <v>474</v>
+      </c>
+      <c r="H40" s="24">
+        <v>20</v>
+      </c>
+      <c r="I40" s="24">
+        <v>88.93</v>
+      </c>
+      <c r="J40" s="25">
+        <f>I40/O40</f>
         <v>114.01282051282051</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K40" s="24">
         <v>20</v>
       </c>
-      <c r="O39" s="34">
+      <c r="O40" s="34">
         <v>0.78</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="22" t="s">
+    <row r="41" spans="1:21">
+      <c r="A41" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C41" s="26">
+        <v>37</v>
+      </c>
+      <c r="D41" s="25">
+        <f>C41/O41</f>
+        <v>37</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="26">
+        <v>110</v>
+      </c>
+      <c r="G41" s="25">
+        <f>F41/O41</f>
+        <v>110</v>
+      </c>
+      <c r="H41" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="26">
-        <v>47</v>
-      </c>
-      <c r="E40" s="26" t="s">
+      <c r="J41" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="26">
-        <v>116</v>
-      </c>
-      <c r="G40" s="26">
-        <v>116</v>
-      </c>
-      <c r="H40" s="26" t="s">
+      <c r="K41" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40" s="33">
+      <c r="O41" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="7"/>
-    </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:21" s="27" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A43" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="39"/>
-      <c r="K43" s="39"/>
-    </row>
-    <row r="44" spans="1:21" s="15" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="47" t="s">
+      <c r="A42" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-    </row>
-    <row r="45" spans="1:21" ht="45.75" customHeight="1">
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:21" s="27" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+    </row>
+    <row r="45" spans="1:21" s="15" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="49"/>
       <c r="B45" s="49"/>
       <c r="C45" s="50"/>
@@ -2662,31 +2663,23 @@
       <c r="I45" s="50"/>
       <c r="J45" s="50"/>
       <c r="K45" s="50"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-    </row>
-    <row r="46" spans="1:21" ht="51" customHeight="1">
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:21" ht="45.75" customHeight="1">
       <c r="A46" s="51"/>
       <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="17"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="52"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -2696,20 +2689,20 @@
       <c r="T46" s="8"/>
       <c r="U46" s="8"/>
     </row>
-    <row r="47" spans="1:21" ht="50.25" customHeight="1">
-      <c r="A47" s="49"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
+    <row r="47" spans="1:21" ht="51" customHeight="1">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="17"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
@@ -2719,18 +2712,18 @@
       <c r="T47" s="8"/>
       <c r="U47" s="8"/>
     </row>
-    <row r="48" spans="1:21" ht="31.5" customHeight="1">
-      <c r="A48" s="49"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
+    <row r="48" spans="1:21" ht="50.25" customHeight="1">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
@@ -2742,18 +2735,18 @@
       <c r="T48" s="8"/>
       <c r="U48" s="8"/>
     </row>
-    <row r="49" spans="1:21" ht="20.25" customHeight="1">
+    <row r="49" spans="1:21" ht="31.5" customHeight="1">
       <c r="A49" s="51"/>
       <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="8"/>
@@ -2765,18 +2758,18 @@
       <c r="T49" s="8"/>
       <c r="U49" s="8"/>
     </row>
-    <row r="50" spans="1:21" ht="30" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
+    <row r="50" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="8"/>
@@ -2788,18 +2781,18 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
     </row>
-    <row r="51" spans="1:21" ht="31.5" customHeight="1">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
+    <row r="51" spans="1:21" ht="30" customHeight="1">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
@@ -2811,18 +2804,18 @@
       <c r="T51" s="8"/>
       <c r="U51" s="8"/>
     </row>
-    <row r="52" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A52" s="49"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
+    <row r="52" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
@@ -2834,18 +2827,18 @@
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
     </row>
-    <row r="53" spans="1:21" ht="38.25" customHeight="1">
+    <row r="53" spans="1:21" ht="22.5" customHeight="1">
       <c r="A53" s="51"/>
       <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
@@ -2857,213 +2850,237 @@
       <c r="T53" s="8"/>
       <c r="U53" s="8"/>
     </row>
-    <row r="54" spans="1:21" ht="29.25" customHeight="1">
-      <c r="A54" s="49"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="9"/>
+    <row r="54" spans="1:21" ht="38.25" customHeight="1">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
     </row>
     <row r="55" spans="1:21" ht="29.25" customHeight="1">
       <c r="A55" s="51"/>
       <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:21" ht="32.25" customHeight="1">
-      <c r="A56" s="49"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="50"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="50"/>
-    </row>
-    <row r="57" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A57" s="49"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="50"/>
-    </row>
-    <row r="58" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A58" s="49"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="50"/>
-    </row>
-    <row r="59" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A59" s="49"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="50"/>
+    <row r="56" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:21" ht="32.25" customHeight="1">
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+    </row>
+    <row r="58" spans="1:21" ht="19.5" customHeight="1">
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+    </row>
+    <row r="59" spans="1:21" ht="23.25" customHeight="1">
+      <c r="A59" s="51"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
     </row>
     <row r="60" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-    </row>
-    <row r="61" spans="1:21" ht="26.25" customHeight="1">
-      <c r="A61" s="49"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="50"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+    </row>
+    <row r="61" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
     </row>
     <row r="62" spans="1:21" ht="26.25" customHeight="1">
-      <c r="A62" s="49"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="50"/>
-    </row>
-    <row r="63" spans="1:21" s="11" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="50"/>
-    </row>
-    <row r="64" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="50"/>
-    </row>
-    <row r="65" spans="1:12" ht="44.25" customHeight="1">
-      <c r="A65" s="49"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="50"/>
-    </row>
-    <row r="66" spans="1:12" ht="36.75" customHeight="1">
-      <c r="A66" s="49"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="9"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+    </row>
+    <row r="63" spans="1:21" ht="26.25" customHeight="1">
+      <c r="A63" s="51"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+    </row>
+    <row r="64" spans="1:21" s="11" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A64" s="51"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+    </row>
+    <row r="65" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A65" s="51"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+    </row>
+    <row r="66" spans="1:12" ht="44.25" customHeight="1">
+      <c r="A66" s="51"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+    </row>
+    <row r="67" spans="1:12" ht="36.75" customHeight="1">
+      <c r="A67" s="51"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="A57:K57"/>
+  <mergeCells count="34">
+    <mergeCell ref="A67:K67"/>
     <mergeCell ref="A58:K58"/>
     <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A60:K60"/>
     <mergeCell ref="A62:K62"/>
     <mergeCell ref="A63:K63"/>
-    <mergeCell ref="A60:K60"/>
     <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A61:K61"/>
     <mergeCell ref="A65:K65"/>
-    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A49:K49"/>
     <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A45:K45"/>
     <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A53:K53"/>
     <mergeCell ref="A56:K56"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A54:K54"/>
     <mergeCell ref="A52:K52"/>
     <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A50:K50"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A44:K44"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A42:K42"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
